--- a/techniqo/data_new_ticker/JSLHISAR.xlsx
+++ b/techniqo/data_new_ticker/JSLHISAR.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1146"/>
+  <dimension ref="A1:G1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40496,6 +40496,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1147" t="n">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>91</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>200754</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1148" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>94.75</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>568875</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/JSLHISAR.xlsx
+++ b/techniqo/data_new_ticker/JSLHISAR.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1148"/>
+  <dimension ref="A1:G1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40546,6 +40546,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1149" t="n">
+        <v>93.15000000000001</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>91</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>93.84999999999999</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>304898</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1150" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>91.45</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>310840</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
